--- a/C_Language_250714.xlsx
+++ b/C_Language_250714.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Clanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D3A727-A7D3-457D-A206-B4E0BF8FD797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8C86BD-3E2B-478E-A39A-E1834676A163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10695" yWindow="2355" windowWidth="18090" windowHeight="15360" activeTab="1" xr2:uid="{03D4AE62-F1D8-4788-B81B-FE3ED7985D7B}"/>
+    <workbookView xWindow="4635" yWindow="3390" windowWidth="19965" windowHeight="10845" activeTab="1" xr2:uid="{03D4AE62-F1D8-4788-B81B-FE3ED7985D7B}"/>
   </bookViews>
   <sheets>
     <sheet name="1.2진수 &amp; 10진수" sheetId="1" r:id="rId1"/>
     <sheet name="2.데이터 &amp; 자료형" sheetId="2" r:id="rId2"/>
+    <sheet name="3.정수 &amp; 실수" sheetId="3" r:id="rId3"/>
+    <sheet name="4.부동소수점" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
   <si>
     <t>인간 10진수
 (10진법)</t>
@@ -241,6 +243,141 @@
   </si>
   <si>
     <t>19자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 정수 (Integers)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 실수 (Real Numbers)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 음의 정수(-3, -2, -1), 0, 양의 정수(1, 2, 3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 0 혹은 양의 정수를 다룰 때에는 unsigned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 음의 정수를 다룰 때에는 signed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 생김새가 양의 정수이던, 음의 정수이던 컴퓨터는 모두 2진수로 처리한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 2.0, 3.16, 2.74, 0.123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 내부적으로 "부동소수점 (floating point)" 표현법 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e = exponent = 지수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 3.14 = 3.14 x 10^0 = 3.14E0 = 3.14e0 = 0.314E1 = 31.4E-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 X 2^7 + 1 X 2^6 +…..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1. 8비트 부호없는 정수 = unsigned = 무조건 양의 정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2. 8비트 부호있는 정수 = signed = 양의 정수를 사용할 수도 있고, 음의 정수도 사용할 수 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+/-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 부호가 있는 정수의 경우, 가장 좌측에 위치한 비트 1개는 반드시 부호 표현에 사용!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 0 : 양수, 1 : 음수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1. 32비트 부호없는 정수 = unsigned = 양의 정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2. 32비트 부호있는 정수 = signed = 양의 정수 혹은 음의 정수 모두 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fraction
+분수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exponent
+지수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sign
++/- 부호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3141592 x 10^-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3141592 x 10^1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3141592 x 10^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signed int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +385,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +398,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -293,7 +439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -317,6 +463,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D9FF01-23A3-42BC-ABB3-981BB264088D}">
   <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -918,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A368385C-A75C-4C56-B5C8-53BCA5B8DF08}">
-  <dimension ref="B1:N15"/>
+  <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1009,122 +1170,644 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+    <row r="9" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
+    <row r="11" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCB952F-6BC4-4B2F-9ABB-B1FAB48CE8CF}">
+  <dimension ref="B1:AG25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
       <c r="C15" s="1">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="2:33" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="2:33" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>1</v>
+      </c>
+      <c r="V23" s="1">
+        <v>1</v>
+      </c>
+      <c r="W23" s="1">
+        <v>1</v>
+      </c>
+      <c r="X23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+    </row>
+    <row r="25" spans="2:33" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="7">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>1</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>1</v>
+      </c>
+      <c r="V25" s="1">
+        <v>1</v>
+      </c>
+      <c r="W25" s="1">
+        <v>1</v>
+      </c>
+      <c r="X25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99A5EE2-6649-4A90-940C-584CB384FE43}">
+  <dimension ref="B1:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="2:7" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.31415920000000003</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.141592E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.31415920000000003</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.31415920000000003</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="1">
+        <v>31.41592</v>
       </c>
     </row>
   </sheetData>

--- a/C_Language_250714.xlsx
+++ b/C_Language_250714.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Clanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8C86BD-3E2B-478E-A39A-E1834676A163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65423B1-75A4-4B31-BCAE-8BFD23C84F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="3390" windowWidth="19965" windowHeight="10845" activeTab="1" xr2:uid="{03D4AE62-F1D8-4788-B81B-FE3ED7985D7B}"/>
+    <workbookView xWindow="14580" yWindow="7380" windowWidth="12690" windowHeight="14850" activeTab="4" xr2:uid="{03D4AE62-F1D8-4788-B81B-FE3ED7985D7B}"/>
   </bookViews>
   <sheets>
     <sheet name="1.2진수 &amp; 10진수" sheetId="1" r:id="rId1"/>
     <sheet name="2.데이터 &amp; 자료형" sheetId="2" r:id="rId2"/>
     <sheet name="3.정수 &amp; 실수" sheetId="3" r:id="rId3"/>
     <sheet name="4.부동소수점" sheetId="4" r:id="rId4"/>
+    <sheet name="5.정수자료형" sheetId="5" r:id="rId5"/>
+    <sheet name="6.8진수 &amp; 16진수" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="119">
   <si>
     <t>인간 10진수
 (10진법)</t>
@@ -378,6 +380,237 @@
   </si>
   <si>
     <t>signed int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수 자료형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signed int
+int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소크기
+(byte)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-2,147,483,648</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">‬ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2,147,483,647</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형식지정자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d 또는 i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned short int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0 ~ 65,536</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>‬</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signed short int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hhu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-128 ~ 127</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>‬</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned long int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long long int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned long long int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>llu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0 ~ 18,446,744,073,709,551,616</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>‬</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-9,223,372,036,854,775,808</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>‬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ~ 9,223,372,036,854,775,807</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hhd, d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10진수
+Decimal Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2진수
+Binary Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8진수
+Octal Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16진수
+Hexadeimal Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +618,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +642,19 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -439,7 +685,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -478,6 +724,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1081,7 +1333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A368385C-A75C-4C56-B5C8-53BCA5B8DF08}">
   <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -1310,7 +1562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCB952F-6BC4-4B2F-9ABB-B1FAB48CE8CF}">
   <dimension ref="B1:AG25"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -1736,7 +1988,7 @@
   <dimension ref="B1:G4"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1815,4 +2067,443 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFD9D23-3DCB-4DCD-8BFC-C3F065155BBE}">
+  <dimension ref="A2:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="15.25" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAD5DBB-EDC7-484E-B921-64DE6A509CF0}">
+  <dimension ref="B2:E19"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="9" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>101</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>110</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>111</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D14" s="1">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1100</v>
+      </c>
+      <c r="D15" s="1">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1101</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1110</v>
+      </c>
+      <c r="D17" s="1">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1111</v>
+      </c>
+      <c r="D18" s="1">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/C_Language_250714.xlsx
+++ b/C_Language_250714.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Clanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65423B1-75A4-4B31-BCAE-8BFD23C84F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987B139A-938B-44D9-9209-CEC92B4C66DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="7380" windowWidth="12690" windowHeight="14850" activeTab="4" xr2:uid="{03D4AE62-F1D8-4788-B81B-FE3ED7985D7B}"/>
+    <workbookView xWindow="14295" yWindow="1710" windowWidth="12690" windowHeight="12195" firstSheet="2" activeTab="4" xr2:uid="{03D4AE62-F1D8-4788-B81B-FE3ED7985D7B}"/>
   </bookViews>
   <sheets>
     <sheet name="1.2진수 &amp; 10진수" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="4.부동소수점" sheetId="4" r:id="rId4"/>
     <sheet name="5.정수자료형" sheetId="5" r:id="rId5"/>
     <sheet name="6.8진수 &amp; 16진수" sheetId="6" r:id="rId6"/>
+    <sheet name="7.부동소수점수" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="125">
   <si>
     <t>인간 10진수
 (10진법)</t>
@@ -613,11 +614,41 @@
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>*4바이트(*32비트) 부동소수점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^(124-127)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exponent (8bits)
+지수부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fraction (23bits)
+가수부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign
+부호비트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -685,7 +716,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,6 +761,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1334,7 +1377,7 @@
   <dimension ref="B1:N16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1987,7 +2030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99A5EE2-6649-4A90-940C-584CB384FE43}">
   <dimension ref="B1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2074,7 +2117,7 @@
   <dimension ref="A2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2506,4 +2549,221 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC505251-2BFE-491E-A176-DF47DDDE1201}">
+  <dimension ref="B2:AH7"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AH4" sqref="AH4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="33" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:34" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="2:34" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+    </row>
+    <row r="4" spans="2:34" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="1">
+        <f xml:space="preserve"> 0.15625</f>
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="15">
+        <v>124</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="2:34" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+    </row>
+    <row r="7" spans="2:34" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="17">
+        <f xml:space="preserve"> 0.15625</f>
+        <v>0.15625</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="K3:AG3"/>
+    <mergeCell ref="C5:J5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/C_Language_250714.xlsx
+++ b/C_Language_250714.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Clanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987B139A-938B-44D9-9209-CEC92B4C66DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9EB242-E4FA-49A9-9F79-A8D4EC692004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="1710" windowWidth="12690" windowHeight="12195" firstSheet="2" activeTab="4" xr2:uid="{03D4AE62-F1D8-4788-B81B-FE3ED7985D7B}"/>
+    <workbookView xWindow="10620" yWindow="1065" windowWidth="19245" windowHeight="12195" activeTab="7" xr2:uid="{03D4AE62-F1D8-4788-B81B-FE3ED7985D7B}"/>
   </bookViews>
   <sheets>
     <sheet name="1.2진수 &amp; 10진수" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="5.정수자료형" sheetId="5" r:id="rId5"/>
     <sheet name="6.8진수 &amp; 16진수" sheetId="6" r:id="rId6"/>
     <sheet name="7.부동소수점수" sheetId="7" r:id="rId7"/>
+    <sheet name="8.문자열 &amp; 메모리 구조" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="139">
   <si>
     <t>인간 10진수
 (10진법)</t>
@@ -641,13 +642,69 @@
 부호비트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자 하나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자의 배열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자 하나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'a'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자의 배열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"H"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"E"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"L"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"O"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'\0'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 문자가 종료되었다는 것을 의미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00000"/>
+    <numFmt numFmtId="176" formatCode="0.00000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -716,7 +773,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -765,10 +822,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2116,8 +2176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFD9D23-3DCB-4DCD-8BFC-C3F065155BBE}">
   <dimension ref="A2:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2574,41 +2634,41 @@
       <c r="B3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="18" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
     </row>
     <row r="4" spans="2:34" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
@@ -2713,16 +2773,16 @@
       </c>
     </row>
     <row r="5" spans="2:34" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="15">
+      <c r="C5" s="16">
         <v>124</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="2:34" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E6" s="1">
@@ -2731,27 +2791,27 @@
       <c r="F6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
       <c r="J6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="17">
         <v>1.25</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="2:34" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="17">
+      <c r="E7" s="18">
         <f xml:space="preserve"> 0.15625</f>
         <v>0.15625</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2766,4 +2826,124 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F553D1-03C8-4AE8-BB05-D390FD5F91C0}">
+  <dimension ref="B2:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>2</v>
+      </c>
+      <c r="F4" s="15">
+        <v>3</v>
+      </c>
+      <c r="G4" s="15">
+        <v>4</v>
+      </c>
+      <c r="H4" s="15">
+        <v>5</v>
+      </c>
+      <c r="I4" s="15">
+        <v>6</v>
+      </c>
+      <c r="J4" s="15">
+        <v>7</v>
+      </c>
+      <c r="K4" s="15">
+        <v>8</v>
+      </c>
+      <c r="L4" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/C_Language_250714.xlsx
+++ b/C_Language_250714.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Clanguage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\C_Language-Study-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9EB242-E4FA-49A9-9F79-A8D4EC692004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79E4474-FB22-4A3D-9E11-F379B0DE8F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="1065" windowWidth="19245" windowHeight="12195" activeTab="7" xr2:uid="{03D4AE62-F1D8-4788-B81B-FE3ED7985D7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9" xr2:uid="{03D4AE62-F1D8-4788-B81B-FE3ED7985D7B}"/>
   </bookViews>
   <sheets>
     <sheet name="1.2진수 &amp; 10진수" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="6.8진수 &amp; 16진수" sheetId="6" r:id="rId6"/>
     <sheet name="7.부동소수점수" sheetId="7" r:id="rId7"/>
     <sheet name="8.문자열 &amp; 메모리 구조" sheetId="8" r:id="rId8"/>
+    <sheet name="9.example" sheetId="9" r:id="rId9"/>
+    <sheet name="10.형식지정자" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="177">
   <si>
     <t>인간 10진수
 (10진법)</t>
@@ -698,6 +701,180 @@
     <t>?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>strlen( )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열 내부 개수를 카운트 할 때 사용하는 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char str1[100] = "Hello"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char str2[] = "Hello"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char str3[100] = "\0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char str4[100] = "\n"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include &lt;string.h&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>print("%zu %zu\n", sizeof(str1), strlen(str1))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main( )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float radius, area;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>printf("Input radius")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scanf("%f", &amp;radius)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define _CRT_SECURE_NO_WARNINGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>printf("Area is %f\n", area)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define PI 3.141592f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area = PI * radius * radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기호적 상수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; 전처리기</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>printf("I'm %s\n", AI_NAME)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define AI_NAME "Friday"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*형식지정자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력사양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%d = %i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부동소수점 수 16진수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 글자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부호가 있는 10진수 및 정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부동소수점 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부동소수점 수, 10진수 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수가 -4보다 작을 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -706,7 +883,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,6 +921,23 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -773,7 +967,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -833,6 +1027,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1432,6 +1629,115 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370A52A3-FE6C-4C38-B639-A3D805DA4360}">
+  <dimension ref="B2:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="26.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7CFFBA-CED5-4480-A3EA-34AD06FF39A8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A368385C-A75C-4C56-B5C8-53BCA5B8DF08}">
   <dimension ref="B1:N16"/>
@@ -2832,8 +3138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F553D1-03C8-4AE8-BB05-D390FD5F91C0}">
   <dimension ref="B2:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2946,4 +3252,123 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661F14F1-9638-4BFA-9301-EA5B03494093}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>